--- a/mbs-perturbation/greedy/svm/greedy-svm-poly-results.xlsx
+++ b/mbs-perturbation/greedy/svm/greedy-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9740259740259739</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9927849927849928</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5057971014492754</v>
+        <v>0.5579710144927535</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.9826839826839826</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.119047619047619</v>
+        <v>0.9913419913419913</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03999999999999999</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5847092038396386</v>
+        <v>0.8997615910659388</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/svm/greedy-svm-poly-results.xlsx
+++ b/mbs-perturbation/greedy/svm/greedy-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9740259740259739</v>
+        <v>0.7057692307692308</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9927849927849928</v>
+        <v>0.5605769230769231</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5579710144927535</v>
+        <v>0.5985576923076923</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9826839826839826</v>
+        <v>0.1442307692307692</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9913419913419913</v>
+        <v>0.4194711538461539</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2181818181818182</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1333333333333334</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8997615910659388</v>
+        <v>0.4857211538461539</v>
       </c>
     </row>
   </sheetData>
